--- a/orders.xlsx
+++ b/orders.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Заказы" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -457,40 +456,285 @@
           <t>Количество</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>отдали</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-07-25 16:21:37</t>
+          <t>2025-08-13 17:25:58</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">катя </t>
+          <t xml:space="preserve">Екатерина </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">тол </t>
+          <t>пппп</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">орд </t>
+          <t>оооо</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Другая Монета</t>
+          <t>100-летие Международного детского центра «Артек»</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>5111-0518</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:26:42</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>овладела</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Первый русский профессиональный театр</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>5111-0521</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>6</v>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>нет</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:26:42</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>овладела</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Юбилей Победы советского народа в Великой Отечественной войне 1941–1945 гг.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5111-0516</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:26:42</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>овладела</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>овоагаш</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Георгий Победоносец</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5216-0060</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>10</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:34:16</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyyx </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyyx </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyxy </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Георгий Победоносец</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5216-0060</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:34:16</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyyx </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyyx </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">gxyxyxy </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Георгий Победоносец</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5111-0178</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>да</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-08-13 17:38:24</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>gggg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>hhhh</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>uuu</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Георгий Победоносец</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5111-0178</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
